--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/32_Eskişehir_2022.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2022/32_Eskişehir_2022.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\İllere Göre Tahsilat Tahakkuk 2022\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2022\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B4E6E317-A09B-4453-83EF-7DEC82D874B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{77495CFF-B43E-4485-8F36-C02B7F9CB429}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8544" yWindow="6144" windowWidth="6528" windowHeight="5280" tabRatio="651" xr2:uid="{D64F8B16-BAD3-4059-90FF-740EFC149E48}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="651" xr2:uid="{FA472B91-2B3E-4FF2-A6A1-6FCF7458CBE0}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK " sheetId="113" r:id="rId1"/>
@@ -975,14 +975,14 @@
   <cellStyles count="10">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{58BD0A92-865F-4FA7-98D8-6CFBB4BBF72C}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{7C222C67-0E41-417B-BBA0-8838BBABFC08}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{7A5218FA-DD25-43DF-B7DA-7A4FB45B913C}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A1C7C34A-FE05-4B15-A956-D130ACD006FD}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{519CFF32-4842-44C5-B041-2DF3787694A7}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{905D8AA7-C2DC-4609-97E0-9A376CA3BB03}"/>
-    <cellStyle name="Not 2" xfId="8" xr:uid="{8D1D3271-DA75-4C14-BA8B-B21A2A9036DC}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{683EF0B5-2BC4-41E6-A3C6-17D5619F0A16}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{5754870A-0605-4F94-8155-76C4DD707A78}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{2FE3F085-31FF-4C62-9B94-2E51456602C8}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{236AA0E6-401A-43B3-9D6D-D4CA375A6010}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{5B223EAA-6F67-4E0B-A40D-5E373777CDB9}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="6" xr:uid="{A9513DCE-9682-4A78-9EDA-0C8E60FBE45F}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="7" xr:uid="{A182216C-F43A-4322-8024-6F58EBF8FB63}"/>
+    <cellStyle name="Not 2" xfId="8" xr:uid="{4ED910A4-BE6A-4C88-BA4D-47BB80CFEA48}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="9" xr:uid="{9D6FDEF0-3A19-4230-AED2-D7CFBE495AAD}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1352,7 +1352,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{329AB3AB-2FB1-44FF-BC79-0C2ACFA977DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E71FABE7-95B2-4941-8FE8-CCF896B3B64E}">
   <dimension ref="B2:F106"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -2650,17 +2650,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A3B21E88-C864-4939-B970-29E2465DCDB8}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5646D21A-ACEA-4426-A360-095D9293ACE8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{44448068-C9B2-4AA0-B543-48E93333DC8B}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{104E974A-7629-43DA-B55B-F11045C5333B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F7C353B3-CC52-45AB-AADF-DCFBDA9F0FDC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C7AF9D10-10D4-43D6-90E9-D682D79BA28B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{000F636A-1D0B-4B6E-B1D4-AFB9882B5110}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E53CC40B-79A5-4C73-A774-2693A3B9DAA4}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C987B77E-E8C4-4A97-A290-1ACDCCF67BFB}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C9ACD19E-5BFA-4EA2-B551-CC8FC8561F17}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{51996958-C62E-4087-AB73-8A9B7F575A7F}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{87B1DA80-6B76-4097-9FFE-6314058EA818}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{04D47585-D072-4F3E-97DE-178E67B4C700}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D3C41F09-A8D7-4E9F-ACFC-175CA1C327E9}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{0EFAC6F9-8D7B-46DE-8A0D-99CF395E76B2}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0D2607CB-F4FD-479E-8C6B-84904465E377}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{F1F71F45-8625-4C4C-ADBC-7AE8E34D3666}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{18DEFFCD-7305-4B6F-92F0-9A1C03067ADF}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{142D1C0F-B159-4708-95CB-80A2B7DA4C9E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{B359092C-C63B-4388-95D2-B1BAEEEE321D}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{AD4F5F2A-DF72-413D-9B33-3E43F7A05E9D}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{1E6E48B3-F7F6-49A8-9005-28B12F0C4449}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2673,7 +2673,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BBACA0E2-F36F-46E5-984E-10705D659BD5}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B644C64A-F858-4075-9F19-0D53D46D13E5}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -3963,17 +3963,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{BA8C7D04-4FDE-4A2E-ADA9-CBE9CA77AF9B}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3EC44B84-6356-4260-9115-FF4D37A15845}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55B8534E-BE6C-4F2E-8E09-CE379BC15FCC}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{2EEE702E-25BB-4817-9D3A-0974088FE1A4}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D7DC78CA-3C28-4AEE-9BAE-4E6458D26ECD}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{ECE3ED9B-DAA4-41B5-A32A-F250F48572A7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{AA2EE0AC-0733-42F5-925E-98299456ABCF}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{37356ED7-DC9C-4B28-BFA5-BEA98C4A10B0}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0322FDCF-504B-43D1-9D78-3076350657AF}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{8D7CD9FB-F359-42C3-8D4D-B9E9E4C46AE6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{197670B6-FD79-4A28-A2E5-55D35A5AB2FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6F20B1D7-9076-4588-B620-F4F7B6527E20}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3CF69DE4-6A35-4A78-94DB-41C9E7C0DD9D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{BC2CC1AA-1772-464A-8BFC-A78669DFFE83}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{269372CD-7561-40DF-AEAA-DECC85A1ACCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{AF8DA295-FC2E-43E9-B5A6-7C9AAE0FB1BF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E5381C54-8889-48F9-B3BB-8F95A4A942C7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3AAF687C-702E-4569-9760-D1671E518702}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D44D26CC-CA12-49A7-B937-F15A817E1653}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{F73BEAA7-D609-4560-A084-6455725447CC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{684A5482-5776-4C79-B67A-93FE1933AB23}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{CE4EE847-86CF-4EEE-A3AE-7906EE3A0211}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3986,7 +3986,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{03C7AC01-5E99-474E-88C1-94491D99F193}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{941EE40A-7A5C-4598-A095-E08DE68AB87B}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -5272,17 +5272,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{71897B4D-2A89-412D-91AB-E8E07F6BC5A4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{BEC45DE1-AAEF-408B-882F-9C6DEC186028}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{D1D58290-B97D-4757-8F1B-00B0AE6595E5}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{88A1F882-EA20-485F-8093-F1B0917AA5FD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{36E91D82-52CB-49CE-9FAF-EACD1C3FB3ED}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{2A4D346D-2EC6-4694-9347-2FCCD9A87012}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{69904651-A601-44B4-9DF7-26BAEB40997E}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A8F44B76-100C-4B82-861A-EEE4F02C37C8}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{70D044C0-9DFC-4FBF-9460-711BC237C25C}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2DA788FE-9602-4F33-9EA3-0A5A8AAE1B03}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{892AB4A5-89A0-4CA7-8AC7-D1164FFF42E5}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{83C0010F-E35B-4BAA-AC95-B7D68EB68B4A}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{75E519C8-596D-40E0-A036-A7C52029E859}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{6B975A7A-85E0-4F44-B490-6886C0569FA7}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{41E4257C-432B-4372-AE98-E28719FFA307}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{EE7FB68A-B7FD-47B5-99E8-934DB1425BEC}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8FB630EB-09D1-4B6F-BAE5-C02B7B7112C1}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{BCD82657-EF4D-44E2-9E1C-BBEE7FE7BBD8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{AA418E49-9083-4168-A0A8-C6B8E72707AF}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5CB0EE1D-6049-47A9-A253-0B22390A04C7}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E40E0971-8B4B-4456-B01B-9E8AE9D6FB84}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F1A53A3-E422-4DF1-A4ED-DFAF155F32F5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5295,7 +5295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A54B427B-3EAB-4C34-B586-9245F80BF6AF}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3FBD7C07-AB97-48E9-AB36-BF1DDB712FD6}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -6575,17 +6575,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D307CCE8-0155-40C0-A947-B6023D887F8D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{95640981-16B9-4903-A9BF-8CF3BC2913BA}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{E14022BC-DCF8-48A1-BFC0-4557A7658E17}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{51CC3D56-9773-4D8C-98FA-1379A5DAAD89}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F52E9E08-B90E-4426-BD16-5F83C9332112}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FCA86C2-A8DC-42DB-B112-B35572D4FF5B}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{31985D98-86B1-4A76-A7D1-6735E2F85D83}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{E9762F59-9C48-4C25-9EC1-96A8B8F847D6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D0FE1B43-C633-4D8C-8455-A9927A979EB3}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{FFC6FD38-9F62-4272-A45C-FF8EC55E47C5}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0F0C3957-7F34-46E2-AFBA-AD3D6482553D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{12DF1B45-0300-470D-84B9-11C8B03C5F0D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{AE08CFE8-C9C1-4043-84A6-71E5C22B9EED}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{907652B3-5753-4D37-B372-AD7501EFE954}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{26A7467B-38CD-4D5F-90FE-5196C002244E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{75101F3F-6D4A-4E4D-BB0E-658071A01AB0}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{81A542A5-46D7-4CBD-9D91-6690B0F9F6E7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{E75E1591-398F-4F9A-B364-ABE0FF4A7650}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B774A129-C109-4DDE-8550-5E71D2B108CC}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{ADD62847-39AA-4155-B5F0-69ACC91743DC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{5FD11106-8AF5-4D9D-932B-1283BBE30E94}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{D8598C6B-027E-457A-BF36-A80C095486E8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6598,7 +6598,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DDDB001B-EF86-4DFE-AF10-C6787F36153B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{722CFA66-90D4-44E5-ABE4-C6D977028783}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -7891,17 +7891,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AD37E52C-871D-4BD5-A366-FA959F1C171E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{344CF4DD-8940-4C36-9E14-80A4CCD893A5}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{870AE658-BC7B-4D67-8A37-1D9DB2E20AD1}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{4D99DF21-6E03-455C-A95C-D77A9FAA52DD}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{B38E5FF3-C180-4F7F-91E4-CF29A183FE76}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7B2E3B8C-0EF5-42C9-96E9-C7AFE4EE4122}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B42DDCB4-D70D-4E05-8F0E-141A7B59F45D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6E9B83D6-046C-41E9-AC43-4D2B518648AE}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{0FA813A4-2C50-4FE7-A1F0-CAD0BBAB50AE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{7F4BFDBD-941B-485C-9955-C01BD200EFC1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{74F37284-6BD2-4F36-9704-DC83F2D0CDE1}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B636AA1-26DD-4463-9D1D-81E6D03E76CF}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FD9787F7-2149-4CC0-8419-BF4C5D2F73DD}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{034D83F1-3567-44BF-BAC8-39A49D2ED3F0}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{53363AA5-3BAF-4719-96A3-F4A5EA773DF9}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7B4D0E3D-E001-4B7A-8F86-766439C75CDB}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{3F2D50C8-4130-4F6F-9508-9DF14129BDA7}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A8B1D406-F5D0-47F2-A7BC-89FD64EC4552}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B9F6A3EA-67C2-4859-8690-38D666DE5541}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E9453105-5A5B-4FFE-94CB-58376438B6AC}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{74A890BA-F71F-4C8B-BACE-BA075BA76221}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6A6D3B4D-9D13-46B0-9A6D-FF8FFF71D7A3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7914,7 +7914,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906045E4-E98A-4C1A-93A7-CA7DD49D4FAA}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{926E0910-B410-48AA-B621-A15E04921DF6}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -9207,17 +9207,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB6A6A94-3669-4E5A-BCFB-AD9B07253B0E}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3664B938-0001-44F0-AF93-FCA990B112F2}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{80AA7DD7-D814-4BB2-8C00-CF6F8CF61E3F}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{C237F0EF-5C23-416D-AE3E-2E72D22FFC58}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{07701446-6DF6-43ED-8042-3967659FDF2F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6A7CBC4B-774B-4FA3-A54D-919B885AAEE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{331599BD-BDC9-4A05-B655-AEF1817DF47B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A0D4804-82B1-4B98-A91B-33A4B0990991}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{1D973066-54EA-4403-9986-BE897CCEA53A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{2BA01F1C-5E2E-4CCF-B0A1-9DAD11ADA309}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8109A12F-C57A-4F84-A3C9-81F25995855C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2C3E6AAE-D25B-43E9-B445-F440987321D0}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7DA45F9E-BA29-44D5-8EA8-7557B781223A}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{DE6B3408-F7B0-4509-8B78-68272021117F}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{57DE82E9-F344-4047-820B-AC295AF01AE5}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{894909B5-16C6-416D-8141-8943C2CA00EF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5CA02915-B230-4B13-AC77-48FD80DC32D5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1279AF31-92CC-40D2-97F8-2AA3E8EB202F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{7657058E-535B-49F8-BE3D-C8B648AC37A7}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{73F892E3-2776-42B8-B813-7A5D9F467DE1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{328337A5-4229-4C21-94F4-962AAF6D83D5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2E590E78-CD61-4498-903F-9A66EA8CF39D}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9230,7 +9230,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{859E45E5-C8EA-4653-835D-BFAC046757DD}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C57EF563-A422-4403-AEA4-2BD799FB7B4B}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -10523,17 +10523,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{ADC9D78E-995A-4A85-99BF-7A51E3969671}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{73B7B329-4633-4712-90C5-4BC383AC6B5E}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{36C9E807-F4F6-4C9A-9AD2-10F5F0320F8A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{EEB9866C-5A41-44BA-B7D6-ED0B12B6EF3B}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8560925F-EF7B-4AEE-AD53-BE8F2F47202A}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D19B66FE-6301-4A7A-BB3E-0607551E12A1}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{920D0453-3A39-44FB-ADFA-72CEC893EE62}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{DB7DAFBA-F295-4D11-9BA2-580401432EBB}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{2A17CB4F-7887-4533-952C-7614ED38FE8B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CEB95FE3-44DF-451B-B509-F5F4C0618D59}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{195CED77-D7D2-46E7-A606-256E7C55DAF7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{AF69CA27-C692-4481-9037-B18E904F5472}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D719910E-205E-4AF0-8ACB-7EA45CB168A6}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{69615962-176F-497E-A94F-D0838B161EF3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{B119BD89-F39F-4FD4-9E18-E9302EA3B923}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D42BEB1-FF4C-4CA2-A8F3-BACC145C7C49}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{85A23C8C-EBF4-478B-853B-CC4E44BD5CAB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B84964FF-C0CC-471F-B131-E4B561ECDAC8}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0AD539E7-747B-425E-9A02-54B637E02833}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{78038466-4474-48BD-BA03-4BD61F7A6598}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9B1B26DB-8C02-4787-BEB7-985719605C0A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{0D8E3C4C-5811-482A-8D87-02FC59F8E392}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10546,7 +10546,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B6A46E8F-04EF-40F4-B6D8-DEA3B92159D2}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{325D0676-7F14-4019-947A-20FB4E410B05}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -11839,17 +11839,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{F6C525E2-950C-469B-AA3A-BFDABE9782CD}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4E0937E6-14B9-4639-BFA1-6A006A3D9472}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{55BBF194-1569-4045-8420-B0AA4941AE5A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{D9538C42-1D61-4362-8EC7-BF9F38807F50}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7125DEEB-A995-45EE-AE55-4B01B8EF70FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{39840258-2C5E-41DD-8375-F7358B8AFF91}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{645A46F6-E810-4081-AF8B-1803F5D9653F}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C12E1292-1B56-4652-91F7-3A981D2809C6}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{671178B8-AF95-4F8C-B660-484C5600B197}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{3F4570A7-ACF5-482D-B2F8-14F5C9053BA1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BBA36640-F240-46EE-88C9-1E97248C235B}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{18B7FC62-F3BC-43B0-8C67-3A604609999B}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{DB69CB3E-1A42-4653-BE86-424C7E04BE7D}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{582CCB88-6137-4D97-9C0C-722B128540AD}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5E2EA321-3305-4000-964E-07BF356FBBD0}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{0A966163-A112-437A-BA0F-3B73A37562B3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{936FE075-8DB5-4670-9938-F701CEC1A907}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{045516A1-187C-4976-B9F5-AF3C11E24F34}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A7992786-D6EC-4066-A15E-E5215A25C058}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{651267B2-917A-42BD-B4FA-9A15AED48966}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{C54C81DD-AC6D-4DC9-B3A7-3F68857DFDB2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{427397C0-4798-4374-9E6B-8E3FEFA99CB8}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11862,7 +11862,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A851C561-CB27-47E1-8E5F-74B37D06976F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{903D2389-6A3A-41E5-B4BF-B80048388A38}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -13151,17 +13151,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC817480-6FB2-459F-995C-F7CE51D787E3}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{45B76895-388A-4649-9295-D2C8DDC97D14}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A1B29CE-0DF3-4366-AF43-7EF434CD3A4A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{089EF325-308C-4742-ABBE-0393F834644C}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4AD531F6-5EF3-46BA-AB44-7A8F79EC58E8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E9449150-5CAC-4E8D-A1B7-11BA137355B7}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{62FDEDA1-24EC-4222-8233-3B521ECBF3A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CC8757E3-697A-4B8C-9AEF-F0A19EE79764}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3DD95A84-2412-4572-B8CC-67A600235787}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{426C5F93-E028-4BDE-B55D-7C7BA77C604D}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{64A6A47E-C115-4ABB-BE85-1D5D67E3DA0D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{8C191DAF-1F4E-4748-BB24-06D1DE9DF28C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B1A24462-EA03-402D-B244-989C7A2D519F}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{54286E7D-FD1E-458F-BB6D-1A546E3ECDE2}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C9B8052-97B4-4403-BAA3-9443C7F12A27}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{41C29161-9D70-4779-856C-9E8839725437}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{57435363-378C-4876-B2C5-DED65D1B0E2D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{197D9066-09D7-4076-B940-5B571674A5A7}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{CAD1ED71-B375-47D0-88CB-2E8000F1E014}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{3446CA67-0796-44F1-A783-39857885426C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{E60BF5F2-7D49-4B97-B1C0-7190483D1D3B}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8D7F9399-35C0-414F-B1C4-0A9E8AB67732}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13174,7 +13174,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A20F421F-5E9E-4F99-8243-F96201D8D346}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D80C033-F0A7-4B18-9512-B888BBCFC1E4}">
   <dimension ref="B2:F105"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" zoomScaleSheetLayoutView="75" workbookViewId="0">
@@ -14463,17 +14463,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B598001C-153A-4C5B-872B-266688B004FE}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F3F2FEF-A72A-4A3D-8196-22E0DA659306}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{306B6136-53D8-45D4-A178-CB7E3B7510F8}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{33FC1E0D-058B-420A-A5C8-A5763B2180B7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{DAA0251E-9407-464C-89EB-565191B449FA}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{A57882EA-35DE-4C1B-BB55-7A6700BFA7FD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2EB3ADFF-8712-40BB-B8B0-7C820EECFDB5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A39CD36F-3CBA-4C2D-8425-CFBC06D47024}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5F145F8E-8CE8-4D54-8F64-B18F53E1CFD0}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9F085F60-1A42-4FC9-8AD8-A1B9ACF4D0AB}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E24DFD61-46FA-464E-B659-36173F36CEF6}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{E2DB9572-07F2-4540-8A85-CF1D5F790867}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{179193F5-D354-4B5D-9335-B6C494EC1D72}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{FB68F41E-422C-4C9A-9191-4B9DD4EA8B43}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{69CAC940-FDFD-42E6-9861-EED6D64AABCC}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{42731832-9DA4-417F-912F-1BAA54697E44}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{362345D8-4E03-4D8F-BD32-09A55D24F3E4}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{023D1561-3F05-4E2E-8798-ABE8256BA982}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D1EE8B68-76B7-4F3E-B711-D8626D7DA595}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{4D70239B-1C71-42F1-8DB2-E006EA186309}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{CABA0989-C9E2-466D-9C17-365462E2A1B5}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{80E76905-CFE6-43FF-81CA-DBD027ABD7D7}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14486,7 +14486,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E8C9F85-908A-458D-8BA7-0512E33495CE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C454C202-8812-44E5-AD5F-DABE3E594E74}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -15776,17 +15776,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{06F2AD51-51DA-49D6-81FA-766805DD5054}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{4382CD62-6D51-4006-A62A-3F7F2F413095}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{B6777C33-BDA9-41A3-9280-FC671B794A3A}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{78FA3CEC-BDB3-4813-B34D-C9E4BA424519}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{04BCBEFB-FADE-4E8D-91F3-CFD285EB9C57}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{37F824D9-A8AB-4E9D-A4A7-EFBC1774979F}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{36842F47-93F8-438F-9819-F62166E5E64A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C6F7810B-8D38-422C-8B6B-A35EF379CD5E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{C5C525D2-B4C0-4168-B0D0-0DD49B8FD866}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BE03C450-B2A5-4641-A557-34A20DA070C1}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{103533DC-1677-499E-BBAE-F169C46BC781}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DE04ED19-634A-4639-B7DF-9D195D81F57C}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{5B150794-0995-4CF0-B161-D47654E61227}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{905C5584-C1A1-4935-8DD8-9643A6ED0857}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{F4EBE1E2-1C29-4726-90D0-F43495A0B773}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{35D378B6-85F7-4F09-8E8F-33A8F42A91AF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{7510EDCA-085C-4A8B-B870-2D0D2184727B}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{212EFEBB-CA83-46C9-B3F2-5E691036AD94}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{A111AC4D-8438-4700-829E-B63BEFE721A3}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{D5332212-C4F0-4772-B45F-07BD25A1840A}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{BDA07EA5-E45C-4EB9-8582-145F31DAD8E8}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{203633FA-0C01-4A59-9615-13B7642C193F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15799,7 +15799,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8F83C64D-6E5F-43F3-9BB0-2F671EC774E1}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A5D07CB-DB6F-43D1-9F22-1DAA34E3F0C2}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F105"/>
   <sheetViews>
@@ -17089,17 +17089,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{EC15234E-9929-45DA-AA65-121D5681BEA4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{57E172D6-843E-46A2-974E-4773296961A8}"/>
-    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{4A2CA1E3-0689-4F4C-95A1-731A0A825C59}"/>
-    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{5BEB557E-1D36-49F4-9E44-B25AD182BF13}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{12B99C7E-2E99-4ED3-901A-8041D980AE5E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AB8AF012-B2DB-4FD5-9DC9-F97657FE50C6}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{17E8BD47-1781-4A68-B52A-F7EF7A6237B5}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{422BE61C-8624-4A22-8DF3-43E2337D809A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{E325A20D-92D7-49A3-9FD5-D04F3814F296}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{9FCF77EB-96B7-4DEB-A2E3-F21EEA3C7924}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C60B98EA-D1D7-4771-8C2D-086B99548174}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{5996C3CB-3BA3-4A6D-8043-F5451D568FCE}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{7BFE6C5E-49E0-4714-8711-F5B790506CF2}"/>
+    <hyperlink ref="E4" location="MART!A1" display="MART" xr:uid="{9D0C2E10-9C86-4AF1-B3CF-E48CEF2C05F3}"/>
+    <hyperlink ref="C5" location="NİSAN!A1" display="NİSAN" xr:uid="{1C5EA9A6-B4DC-481B-9902-8D51C5A7A450}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F6F9465F-7133-4DCF-B7F0-E3C524AC61E7}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C29A392A-87FA-43B6-BACC-2681503FEFFB}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F671E37B-8FE6-4468-9BDA-0E873638CA26}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0985C182-5483-466A-8E41-98D8AAD67E68}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYÜL" xr:uid="{5AE43F5F-F8DF-4A19-A413-162AA6411A35}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM " xr:uid="{700AFE6E-4C38-4A7C-A163-E9A8475BAAE2}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{7FF1FE40-1500-4B47-999E-01A903DAC466}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
